--- a/app/files/template_esp.xlsx
+++ b/app/files/template_esp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanyashapiro/Desktop/Clients/wsda/soil-health-report-generator/app/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1F5FCE-F43E-8142-BADA-DD786E4EE19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5752BF02-2451-0D48-8729-F60F09E7E8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7480" yWindow="760" windowWidth="22760" windowHeight="15480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1266,7 +1266,7 @@
     <t>Micronutriente es esenciales para plantas</t>
   </si>
   <si>
-    <t>measurement_group_label</t>
+    <t>measurement_group</t>
   </si>
 </sst>
 </file>
